--- a/final_data_pipeline/output/311511longform.xlsx
+++ b/final_data_pipeline/output/311511longform.xlsx
@@ -1459,7 +1459,7 @@
         <v>61</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>19.36574074074073</v>
       </c>
       <c r="AB10">
         <v>8000</v>
@@ -1548,7 +1548,7 @@
         <v>61</v>
       </c>
       <c r="AA11">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB11">
         <v>8000</v>
@@ -1637,7 +1637,7 @@
         <v>61</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB12">
         <v>8000</v>
